--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>CNFN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,84 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -740,68 +751,95 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>-1800</v>
       </c>
-      <c r="G10" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>-2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>-2400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +851,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,26 +865,35 @@
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +921,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,11 +941,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -894,14 +953,23 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +997,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +1016,49 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1066,37 @@
         <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1108,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1022,25 +1123,34 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,57 +1158,75 @@
         <v>-400</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
-        <v>800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1106,28 +1234,37 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1292,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1330,17 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1193,28 +1348,37 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1222,28 +1386,37 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1444,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1280,28 +1462,37 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>15200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="I29" s="3">
         <v>-700</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L29" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M29" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1520,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1558,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1370,25 +1579,34 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1396,28 +1614,37 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
         <v>14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1672,17 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1454,62 +1690,80 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
         <v>14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1775,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1791,49 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1861,55 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1937,17 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1659,57 +1955,75 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>2400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>4200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +2051,17 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1749,16 +2072,16 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>1500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -1766,37 +2089,55 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3800</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="H49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>4600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>4400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>4200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2165,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2203,55 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2279,55 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>5200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>4600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>9100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>9000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>8600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2339,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,66 +2355,87 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2033,86 +2443,113 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>6900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>6600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>9400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>8500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>9000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>7400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>6800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2123,25 +2560,34 @@
         <v>8</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>9800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2615,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2653,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2691,55 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>18900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>16000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>16100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>14800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>13800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2751,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2783,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2821,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2859,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2897,55 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-29800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-29400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-44000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-43000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-36300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-34400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-32800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2973,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +3011,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +3049,55 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G76" s="3">
         <v>4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-14200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-13500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-7000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-5800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-5200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +3125,60 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2602,28 +3186,37 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
         <v>14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3228,11 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -2664,8 +3260,17 @@
       <c r="K83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3298,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3336,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3374,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3412,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3450,55 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H89" s="3">
         <v>-5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,28 +3510,31 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -2880,8 +3542,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3580,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3618,17 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2947,28 +3636,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>20500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-400</v>
       </c>
       <c r="K94" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3678,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3710,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3748,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3786,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3824,55 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-14000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3900,51 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>CNFN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -760,10 +764,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,75 +778,81 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>1800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2400</v>
       </c>
       <c r="N9" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,11 +888,11 @@
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
         <v>800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1000</v>
       </c>
       <c r="K12" s="3">
         <v>1000</v>
@@ -887,13 +901,16 @@
         <v>1000</v>
       </c>
       <c r="M12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,34 +947,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>3800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -965,11 +985,14 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1045,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1028,19 +1055,19 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1049,36 +1076,39 @@
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
@@ -1087,16 +1117,19 @@
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1132,63 +1166,69 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1204,49 +1244,52 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
@@ -1255,16 +1298,19 @@
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,28 +1388,31 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1369,36 +1421,39 @@
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
@@ -1407,16 +1462,19 @@
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,46 +1511,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>15200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-6400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-800</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1588,25 +1658,28 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1614,37 +1687,40 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1757,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1690,80 +1769,86 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1882,57 +1975,60 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2100</v>
       </c>
       <c r="K43" s="3">
         <v>2100</v>
       </c>
       <c r="L43" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="M43" s="3">
         <v>2900</v>
       </c>
       <c r="N43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1964,66 +2063,72 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2081,10 +2189,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>1500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2112,32 +2223,35 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>3800</v>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H49" s="3">
         <v>3800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="I49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>4600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2223,8 +2343,8 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2233,13 +2353,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2367,45 +2498,48 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2416,26 +2550,29 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2452,28 +2589,31 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2481,37 +2621,40 @@
         <v>1100</v>
       </c>
       <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,7 +2662,7 @@
         <v>800</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -2528,28 +2671,31 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>9400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2559,35 +2705,38 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-44000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-43000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-13500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-5200</v>
       </c>
       <c r="N76" s="3">
         <v>-5200</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>-5200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3323,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3186,37 +3381,40 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3255,22 +3454,25 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-800</v>
       </c>
       <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-5700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,20 +3745,20 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3645,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>20500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-400</v>
       </c>
       <c r="L94" s="3">
         <v>-400</v>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>CNFN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,26 +744,26 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -767,10 +774,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,37 +794,43 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,40 +838,46 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-2000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-2500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,26 +918,32 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <v>800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1000</v>
       </c>
       <c r="M12" s="3">
         <v>1000</v>
       </c>
       <c r="N12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,49 +983,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>3800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1097,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1058,37 +1111,43 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1155,46 @@
         <v>-300</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1169,25 +1236,31 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,40 +1268,46 @@
         <v>-300</v>
       </c>
       <c r="E21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1247,29 +1326,35 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1277,40 +1362,46 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1488,14 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1400,40 +1503,46 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1441,40 +1550,46 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,49 +1629,61 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>15200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-6400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-1600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-1300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-800</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1661,66 +1800,78 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>14600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>14600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,13 +2142,19 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1978,45 +2163,51 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -2030,11 +2221,11 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2045,8 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2066,92 +2263,104 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2192,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>1500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2209,8 +2424,14 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2226,32 +2447,38 @@
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
         <v>3800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3800</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>4600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,19 +2565,25 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2356,16 +2595,16 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,63 +2748,71 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>2300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2200</v>
       </c>
       <c r="O57" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2553,31 +2820,37 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>2900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3500</v>
       </c>
       <c r="M58" s="3">
         <v>3400</v>
       </c>
       <c r="N58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2592,151 +2865,175 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>9400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-36000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-35600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-35100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-34700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-29800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-29400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-44000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-43000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-36300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-34400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-32800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E76" s="3">
         <v>-1500</v>
       </c>
       <c r="F76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-14200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-13500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-7000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>14600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3457,22 +3854,28 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +4103,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3685,40 +4118,46 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,37 +4173,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3866,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3878,19 +4337,19 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>20500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-400</v>
       </c>
       <c r="N94" s="3">
         <v>-400</v>
@@ -3898,8 +4357,14 @@
       <c r="O94" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,13 +4564,19 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
@@ -4094,34 +4585,40 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-14000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>CNFN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,118 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -780,15 +788,21 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -800,84 +814,96 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>-1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-2000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-2500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,26 +952,32 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
         <v>800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1000</v>
       </c>
       <c r="O12" s="3">
         <v>1000</v>
       </c>
       <c r="P12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1023,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>3800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,16 +1151,18 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -1117,42 +1171,48 @@
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
@@ -1161,40 +1221,46 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,13 +1278,15 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1242,30 +1310,36 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
         <v>-300</v>
@@ -1274,40 +1348,46 @@
         <v>-300</v>
       </c>
       <c r="G21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1332,34 +1412,40 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
@@ -1368,40 +1454,46 @@
         <v>-300</v>
       </c>
       <c r="G23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,13 +1592,19 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
@@ -1509,45 +1613,51 @@
         <v>-300</v>
       </c>
       <c r="G26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
@@ -1556,40 +1666,46 @@
         <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,55 +1751,67 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>15200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-6400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-1600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-1300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-800</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,13 +1910,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1806,72 +1946,84 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>14600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>14600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2226,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2063,69 +2237,75 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2148,19 +2328,25 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2169,51 +2355,57 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -2227,11 +2419,11 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2242,13 +2434,19 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2269,75 +2467,87 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>500</v>
+      </c>
+      <c r="S45" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2347,11 +2557,11 @@
       <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2362,11 +2572,11 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2383,16 +2593,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2413,14 +2629,14 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
-      </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
@@ -2430,13 +2646,19 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>9300</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -2453,32 +2675,38 @@
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>3800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>4600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100</v>
-      </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,75 +3010,83 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>2300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2200</v>
       </c>
       <c r="Q57" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2826,37 +3094,43 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>2900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>3500</v>
       </c>
       <c r="O58" s="3">
         <v>3400</v>
       </c>
       <c r="P58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2871,169 +3145,193 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>500</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L61" s="3">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>9400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>8500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>9800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>18900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-36800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-36400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-36000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-35600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-35100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-34700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-29400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-44000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-43000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-36300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-34400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1600</v>
       </c>
       <c r="G76" s="3">
         <v>-1500</v>
       </c>
       <c r="H76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-14200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-13500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-7000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>14600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,13 +4223,15 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3860,22 +4258,28 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,13 +4537,19 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -4124,40 +4558,46 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,43 +4615,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,23 +4770,29 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4343,19 +4803,19 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>20500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-400</v>
       </c>
       <c r="P94" s="3">
         <v>-400</v>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,19 +5056,25 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
@@ -4591,34 +5083,40 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14000</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>CNFN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,138 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -794,25 +805,34 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
@@ -820,90 +840,108 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>2500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>2400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>-300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>-2200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>-2500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>-2400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +961,11 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,26 +999,35 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="T12" s="3">
         <v>1000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1079,17 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,37 +1097,37 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>9400</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1076,14 +1135,23 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1203,17 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1230,135 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-4800</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,23 +1378,26 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1316,83 +1417,101 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
-        <v>-4700</v>
+        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1418,82 +1537,100 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
-        <v>-4700</v>
+        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1682,17 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1744,141 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
-        <v>-4700</v>
+        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
-        <v>-4800</v>
+        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,28 +1930,37 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1790,28 +1972,37 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>15200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="Q29" s="3">
         <v>-700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="R29" s="3">
         <v>-6400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="S29" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="T29" s="3">
         <v>-1300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="U29" s="3">
         <v>-800</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +2054,17 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,23 +2116,32 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1952,78 +2161,96 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
-        <v>-4900</v>
+        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
         <v>14600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2302,146 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
-        <v>-4900</v>
+        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
         <v>14600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2461,11 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,13 +2485,16 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2249,57 +2509,66 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -2307,14 +2576,14 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2334,87 +2603,105 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>2100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>2900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -2425,14 +2712,14 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2440,23 +2727,32 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2473,81 +2769,99 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>700</v>
+      </c>
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>400</v>
+      </c>
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>2400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>4500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>4200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2563,14 +2877,14 @@
       <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2578,14 +2892,14 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2599,26 +2913,35 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -2635,40 +2958,49 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
-        <v>100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
         <v>9300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2681,32 +3013,41 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>3800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>3800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>4600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>4400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>4200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +3099,17 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,22 +3161,31 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2837,35 +3196,44 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100</v>
-      </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3285,79 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G54" s="3">
         <v>16900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>4600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>2600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>9100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>9000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>8600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3377,11 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,135 +3401,156 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>3200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
@@ -3151,187 +3561,223 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>6900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>6300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>6600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>6000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>900</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>9400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>8500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>9000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>7400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>6800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>9800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>1000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3829,17 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3891,17 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3953,79 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>18900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>16000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>16100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>14800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>13800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +4045,11 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +4101,17 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +4163,17 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4225,17 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4287,79 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-37600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-37100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-36800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-36400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-36000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-35600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-35100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-34700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-29800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-29400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-44000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-43000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-34400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-32800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4411,17 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4473,17 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4535,79 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G76" s="3">
         <v>8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>4700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-14200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-13500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-5800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-5200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4659,146 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
-        <v>-4900</v>
+        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
         <v>14600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,22 +4818,25 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4264,22 +4860,31 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4936,17 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4998,17 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +5060,17 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +5122,17 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +5184,79 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,22 +5276,25 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -4640,29 +5302,29 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4670,8 +5332,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5394,17 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,13 +5456,22 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4791,17 +5480,17 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4809,28 +5498,37 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>20500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-400</v>
       </c>
       <c r="S94" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5548,11 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5604,17 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5666,17 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5728,17 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,66 +5790,84 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-14000</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5168,13 +5914,22 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
@@ -5186,39 +5941,48 @@
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>CNFN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,121 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E8" s="3">
         <v>1500</v>
       </c>
       <c r="F8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
@@ -784,22 +788,22 @@
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -814,28 +818,31 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
@@ -849,57 +856,60 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2500</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2400</v>
       </c>
       <c r="V9" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -908,40 +918,43 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>-1800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-2200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-2000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-2500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-2400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,11 +1022,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3">
         <v>800</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1000</v>
       </c>
       <c r="S12" s="3">
         <v>1000</v>
@@ -1021,13 +1035,16 @@
         <v>1000</v>
       </c>
       <c r="U12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V12" s="3">
         <v>1100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1100,46 +1120,46 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>9400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1147,11 +1167,14 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,28 +1259,29 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
@@ -1266,19 +1293,19 @@
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1287,33 +1314,36 @@
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
@@ -1325,22 +1355,22 @@
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
@@ -1349,16 +1379,19 @@
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,26 +1414,27 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1426,42 +1460,45 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
@@ -1473,40 +1510,43 @@
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +1554,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1546,46 +1586,49 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
@@ -1597,22 +1640,22 @@
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
@@ -1621,16 +1664,19 @@
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,25 +1802,28 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
@@ -1783,22 +1835,22 @@
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
@@ -1807,33 +1859,36 @@
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
@@ -1845,22 +1900,22 @@
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
@@ -1869,16 +1924,19 @@
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1950,59 +2011,62 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>15200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-6400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-1600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-1300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-800</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,26 +2192,29 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2170,42 +2240,45 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
@@ -2214,43 +2287,46 @@
         <v>-400</v>
       </c>
       <c r="K33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,25 +2387,28 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
@@ -2338,110 +2417,116 @@
         <v>-400</v>
       </c>
       <c r="K35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2500,58 +2587,61 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2565,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="I42" s="3">
+        <v>100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2585,8 +2675,8 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2612,31 +2702,34 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2648,54 +2741,57 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>2200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>2100</v>
       </c>
       <c r="S43" s="3">
         <v>2100</v>
       </c>
       <c r="T43" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="U43" s="3">
         <v>2900</v>
       </c>
       <c r="V43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2703,8 +2799,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
@@ -2721,8 +2817,8 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2751,11 +2850,11 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2778,90 +2877,96 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2886,8 +2991,8 @@
       <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>200</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2901,8 +3006,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2922,29 +3027,32 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2967,11 +3075,11 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="R48" s="3">
-        <v>100</v>
-      </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2998,12 +3109,12 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
         <v>9300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3022,32 +3133,35 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>3800</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>3800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>4600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3187,8 +3307,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -3205,8 +3325,8 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3215,14 +3335,14 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
-        <v>100</v>
-      </c>
       <c r="T52" s="3">
         <v>100</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,102 +3534,106 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>4100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2200</v>
       </c>
       <c r="F58" s="3">
         <v>2200</v>
       </c>
       <c r="G58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3510,49 +3644,52 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3570,122 +3707,128 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1100</v>
       </c>
       <c r="L60" s="3">
         <v>1100</v>
       </c>
       <c r="M60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>800</v>
       </c>
       <c r="L61" s="3">
         <v>800</v>
       </c>
       <c r="M61" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
@@ -3694,51 +3837,54 @@
         <v>500</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>9400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3749,35 +3895,38 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
         <v>1900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E66" s="3">
         <v>9100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-50200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-37600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-34700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-43000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-34400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-14200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-13500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-7000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5800</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-5200</v>
       </c>
       <c r="V76" s="3">
         <v>-5200</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-5200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,92 +4857,98 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
@@ -4762,43 +4957,46 @@
         <v>-400</v>
       </c>
       <c r="K81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4833,13 +5032,13 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4869,22 +5068,25 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
-        <v>100</v>
-      </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,25 +5407,28 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -5223,40 +5440,43 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-800</v>
       </c>
       <c r="P89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,19 +5499,20 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -5302,11 +5523,11 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -5314,20 +5535,20 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,35 +5692,38 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5507,16 +5737,16 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>20500</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-400</v>
       </c>
       <c r="T94" s="3">
         <v>-400</v>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,75 +6042,81 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5932,57 +6184,60 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>CNFN</t>
   </si>
@@ -1265,8 +1265,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>1800</v>
       </c>
       <c r="E17" s="3">
         <v>2900</v>
@@ -1330,8 +1330,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-1000</v>
       </c>
       <c r="E18" s="3">
         <v>-1400</v>
@@ -1420,8 +1420,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1485,8 +1485,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
         <v>-1000</v>
@@ -1615,8 +1615,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
         <v>-1500</v>
@@ -1810,8 +1810,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-1100</v>
       </c>
       <c r="E26" s="3">
         <v>-1500</v>
@@ -1875,8 +1875,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
         <v>-1500</v>
@@ -2200,8 +2200,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2265,8 +2265,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
         <v>-1500</v>
@@ -2395,8 +2395,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
         <v>-1500</v>
@@ -4935,8 +4935,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
         <v>-1500</v>

--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,127 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1500</v>
       </c>
       <c r="F8" s="3">
         <v>1500</v>
       </c>
       <c r="G8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
@@ -791,22 +794,22 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -821,31 +824,34 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
@@ -859,60 +865,63 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>1800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2500</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2400</v>
       </c>
       <c r="W9" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E10" s="3">
         <v>-500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -921,40 +930,43 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>-1800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-2200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-2000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-2500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-2400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,11 +1038,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3">
         <v>800</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1000</v>
       </c>
       <c r="T12" s="3">
         <v>1000</v>
@@ -1038,13 +1051,16 @@
         <v>1000</v>
       </c>
       <c r="V12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W12" s="3">
         <v>1100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,13 +1124,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1123,46 +1142,46 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>9400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1170,11 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,31 +1285,32 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1296,19 +1322,19 @@
         <v>500</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1317,36 +1343,39 @@
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
@@ -1358,22 +1387,22 @@
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
@@ -1382,16 +1411,19 @@
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1430,14 +1463,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1463,45 +1496,48 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
@@ -1513,51 +1549,54 @@
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1589,49 +1628,52 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
@@ -1643,22 +1685,22 @@
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
@@ -1667,16 +1709,19 @@
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,28 +1853,31 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1838,22 +1889,22 @@
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
@@ -1862,36 +1913,39 @@
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
@@ -1903,22 +1957,22 @@
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
@@ -1927,16 +1981,19 @@
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2014,59 +2074,62 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>15200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-6400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-1600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-1300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-800</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2210,14 +2279,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2243,45 +2312,48 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
@@ -2290,43 +2362,46 @@
         <v>-400</v>
       </c>
       <c r="L33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,28 +2465,31 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
@@ -2420,113 +2498,119 @@
         <v>-400</v>
       </c>
       <c r="L35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,13 +2660,14 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2590,58 +2676,61 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2658,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+      <c r="J42" s="3">
+        <v>100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2678,8 +2767,8 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2705,34 +2794,37 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2744,34 +2836,37 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>2200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>2100</v>
       </c>
       <c r="T43" s="3">
         <v>2100</v>
       </c>
       <c r="U43" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="V43" s="3">
         <v>2900</v>
       </c>
       <c r="W43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2779,22 +2874,22 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2802,8 +2897,8 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
@@ -2820,8 +2915,8 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2835,13 +2930,16 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2853,11 +2951,11 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2880,98 +2978,104 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -2994,8 +3098,8 @@
       <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>200</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3009,8 +3113,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3030,32 +3134,35 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
@@ -3078,11 +3185,11 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
-      </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3112,12 +3222,12 @@
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
         <v>9300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3136,32 +3246,35 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>3800</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>3800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="R49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
         <v>4600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,13 +3406,16 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3310,8 +3429,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -3328,8 +3447,8 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3338,14 +3457,14 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3">
-        <v>100</v>
-      </c>
       <c r="U52" s="3">
         <v>100</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>5900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,108 +3664,112 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>4100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2200</v>
       </c>
       <c r="G58" s="3">
         <v>2200</v>
       </c>
       <c r="H58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3647,52 +3780,55 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>2900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3710,128 +3846,134 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1100</v>
       </c>
       <c r="M60" s="3">
         <v>1100</v>
       </c>
       <c r="N60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>800</v>
       </c>
       <c r="M61" s="3">
         <v>800</v>
       </c>
       <c r="N61" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
@@ -3840,54 +3982,57 @@
         <v>500</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>9400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -3898,35 +4043,38 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>1900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-37100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-43000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-34400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-14200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-13500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-7000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5800</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-5200</v>
       </c>
       <c r="W76" s="3">
         <v>-5200</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-5200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,98 +5048,104 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
@@ -4960,43 +5154,46 @@
         <v>-400</v>
       </c>
       <c r="L81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5035,13 +5233,13 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5071,22 +5269,25 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
-        <v>100</v>
-      </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,28 +5623,31 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
@@ -5443,40 +5659,43 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-800</v>
       </c>
       <c r="Q89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R89" s="3">
         <v>-5700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,37 +5719,38 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -5538,20 +5758,20 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,38 +5921,41 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5740,16 +5969,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>20500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-400</v>
       </c>
       <c r="U94" s="3">
         <v>-400</v>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14000</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>-800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>CNFN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,165 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -827,37 +835,43 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
@@ -868,105 +882,117 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>1800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F10" s="3">
         <v>-300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>-1800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-2200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-2000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>-2500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-2400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,26 +1069,32 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3">
         <v>800</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1000</v>
       </c>
       <c r="V12" s="3">
         <v>1000</v>
       </c>
       <c r="W12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1161,88 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>4400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>9400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>3800</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,37 +1338,39 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
@@ -1325,63 +1379,69 @@
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-11400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
@@ -1390,40 +1450,46 @@
         <v>-300</v>
       </c>
       <c r="N18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,35 +1514,37 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1499,51 +1567,57 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-10900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
@@ -1552,57 +1626,63 @@
         <v>-300</v>
       </c>
       <c r="N21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1631,55 +1711,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-11200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
@@ -1688,40 +1774,46 @@
         <v>-300</v>
       </c>
       <c r="N23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,34 +1954,40 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-11200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
@@ -1892,66 +1996,72 @@
         <v>-300</v>
       </c>
       <c r="N26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-300</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
       <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-11300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
@@ -1960,40 +2070,46 @@
         <v>-400</v>
       </c>
       <c r="N27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-300</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
       </c>
       <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,59 +2199,65 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>15200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-6400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-1600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-1300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-800</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,35 +2398,41 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2315,93 +2455,105 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-11300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>14600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-11300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>14600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,84 +2833,92 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>1800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2750,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>100</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>100</v>
+      </c>
+      <c r="L42" s="3">
+        <v>100</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2770,11 +2950,11 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,31 +2992,31 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2839,72 +3025,78 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>2200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
@@ -2918,11 +3110,11 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2954,14 +3152,14 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2981,107 +3179,119 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
-      </c>
-      <c r="V45" s="3">
-        <v>600</v>
-      </c>
-      <c r="W45" s="3">
-        <v>500</v>
       </c>
       <c r="X45" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>200</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -3101,11 +3311,11 @@
       <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>200</v>
+      </c>
+      <c r="N47" s="3">
+        <v>200</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3116,11 +3326,11 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3137,38 +3347,44 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
         <v>5300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5400</v>
       </c>
       <c r="H48" s="3">
         <v>5800</v>
       </c>
       <c r="I48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -3188,14 +3404,14 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
-      <c r="T48" s="3">
-        <v>100</v>
-      </c>
-      <c r="U48" s="3">
-        <v>100</v>
-      </c>
       <c r="V48" s="3">
         <v>100</v>
       </c>
@@ -3205,8 +3421,14 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3225,15 +3447,15 @@
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>9300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3249,32 +3471,38 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>3800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>4600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>4400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>4200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,20 +3643,26 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -3432,11 +3672,11 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -3450,35 +3690,41 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3">
-        <v>100</v>
-      </c>
-      <c r="V52" s="3">
-        <v>100</v>
-      </c>
       <c r="W52" s="3">
         <v>100</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>900</v>
+      </c>
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>8600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,117 +3925,125 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="F57" s="3">
         <v>2400</v>
       </c>
       <c r="G57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4100</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>2300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>2200</v>
       </c>
       <c r="X57" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3783,59 +4051,65 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>2900</v>
-      </c>
-      <c r="T58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>3500</v>
       </c>
       <c r="V58" s="3">
         <v>3400</v>
       </c>
       <c r="W58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Y58" s="3">
         <v>3200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
@@ -3849,164 +4123,182 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>6900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E60" s="3">
         <v>8900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>6300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="3">
         <v>1900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
-      </c>
-      <c r="O61" s="3">
-        <v>500</v>
-      </c>
-      <c r="P61" s="3">
-        <v>500</v>
       </c>
       <c r="Q61" s="3">
         <v>500</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S61" s="3">
+        <v>500</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>9400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>8500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>9000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>7400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>6800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,31 +4306,31 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -4046,35 +4338,41 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>1900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>9800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E66" s="3">
         <v>10000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G66" s="3">
         <v>9300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>9700</v>
       </c>
       <c r="H66" s="3">
         <v>9100</v>
       </c>
       <c r="I66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>18900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>16000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>16100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>14800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>13800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-59000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-52900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-51700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-50200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-48800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-37600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-37100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-36800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-36400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-36000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-35600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-35100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-29800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-29400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-44000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-43000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-36300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-34400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-32800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1600</v>
       </c>
       <c r="N76" s="3">
         <v>-1500</v>
       </c>
       <c r="O76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-14200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-13500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-7000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-5800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-5200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-11300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>14600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,16 +5614,18 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -5236,16 +5634,16 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5272,22 +5670,28 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
-        <v>100</v>
-      </c>
-      <c r="X83" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,25 +6069,25 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -5662,40 +6096,46 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-5700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,13 +6160,15 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5738,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5746,8 +6188,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5755,29 +6197,29 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6378,19 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>600</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5942,26 +6402,26 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5972,19 +6432,19 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>20500</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-400</v>
       </c>
       <c r="W94" s="3">
         <v>-400</v>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,40 +6776,46 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>400</v>
@@ -6332,34 +6824,40 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-14000</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6924,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNFN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>CNFN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,148 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1500</v>
       </c>
       <c r="I8" s="3">
         <v>1500</v>
       </c>
       <c r="J8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
@@ -811,22 +815,22 @@
         <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -841,40 +845,43 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
@@ -888,69 +895,72 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>1800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2500</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>2400</v>
       </c>
       <c r="Z9" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -959,40 +969,43 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>-1800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-2200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-2000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,11 +1089,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3">
         <v>800</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1000</v>
       </c>
       <c r="W12" s="3">
         <v>1000</v>
@@ -1088,13 +1102,16 @@
         <v>1000</v>
       </c>
       <c r="Y12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z12" s="3">
         <v>1100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,23 +1184,26 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>4400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1191,46 +1211,46 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>9400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>3800</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1238,11 +1258,14 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,40 +1366,41 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
@@ -1385,19 +1412,19 @@
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
@@ -1406,45 +1433,48 @@
         <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
@@ -1456,22 +1486,22 @@
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
@@ -1480,16 +1510,19 @@
         <v>-300</v>
       </c>
       <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,23 +1549,24 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1540,14 +1574,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1573,54 +1607,57 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>600</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
@@ -1632,60 +1669,63 @@
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1717,58 +1757,61 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
@@ -1780,22 +1823,22 @@
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
@@ -1804,16 +1847,19 @@
         <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,37 +2009,40 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
@@ -2002,22 +2054,22 @@
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
@@ -2026,45 +2078,48 @@
         <v>-300</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
@@ -2076,22 +2131,22 @@
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
@@ -2100,16 +2155,19 @@
         <v>-300</v>
       </c>
       <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2205,59 +2266,62 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>15200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-6400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-1600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-800</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,22 +2471,25 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2428,14 +2498,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2461,54 +2531,57 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-600</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-400</v>
@@ -2517,43 +2590,46 @@
         <v>-400</v>
       </c>
       <c r="O33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,37 +2702,40 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-400</v>
@@ -2665,122 +2744,128 @@
         <v>-400</v>
       </c>
       <c r="O35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,22 +2921,23 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2859,58 +2946,61 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>1800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2920,8 +3010,8 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2936,13 +3026,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>100</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2956,8 +3046,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2983,13 +3073,16 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2998,28 +3091,28 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3031,66 +3124,69 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>2200</v>
-      </c>
-      <c r="V43" s="3">
-        <v>2100</v>
       </c>
       <c r="W43" s="3">
         <v>2100</v>
       </c>
       <c r="X43" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="Y43" s="3">
         <v>2900</v>
       </c>
       <c r="Z43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>1900</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -3098,8 +3194,8 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
@@ -3116,8 +3212,8 @@
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3146,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3158,11 +3257,11 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -3185,102 +3284,108 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3290,11 +3395,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
@@ -3317,8 +3422,8 @@
       <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>200</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3332,8 +3437,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3353,41 +3458,44 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -3410,11 +3518,11 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
         <v>1500</v>
       </c>
-      <c r="V48" s="3">
-        <v>100</v>
-      </c>
       <c r="W48" s="3">
         <v>100</v>
       </c>
@@ -3427,13 +3535,16 @@
       <c r="Z48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>8700</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -3453,12 +3564,12 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>9300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3477,32 +3588,35 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
-        <v>3800</v>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T49" s="3">
         <v>3800</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="U49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
         <v>4600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3658,14 +3778,14 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -3678,8 +3798,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
@@ -3696,8 +3816,8 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3706,14 +3826,14 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
         <v>300</v>
       </c>
-      <c r="W52" s="3">
-        <v>100</v>
-      </c>
       <c r="X52" s="3">
         <v>100</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>900</v>
       </c>
       <c r="F54" s="3">
         <v>900</v>
       </c>
       <c r="G54" s="3">
+        <v>900</v>
+      </c>
+      <c r="H54" s="3">
         <v>5900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,126 +4057,130 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
         <v>2300</v>
       </c>
       <c r="F57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>800</v>
       </c>
       <c r="Q57" s="3">
+        <v>800</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>4100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>2300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3100</v>
       </c>
       <c r="F58" s="3">
         <v>3100</v>
       </c>
       <c r="G58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2200</v>
       </c>
       <c r="J58" s="3">
         <v>2200</v>
       </c>
       <c r="K58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -4057,61 +4191,64 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>2900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -4129,146 +4266,152 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E60" s="3">
         <v>9500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>8900</v>
       </c>
       <c r="F60" s="3">
         <v>8900</v>
       </c>
       <c r="G60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1100</v>
       </c>
       <c r="P60" s="3">
         <v>1100</v>
       </c>
       <c r="Q60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1000</v>
       </c>
       <c r="F61" s="3">
         <v>1000</v>
       </c>
       <c r="G61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="3">
         <v>1900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>800</v>
       </c>
       <c r="P61" s="3">
         <v>800</v>
       </c>
       <c r="Q61" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="R61" s="3">
         <v>500</v>
@@ -4277,63 +4420,66 @@
         <v>500</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>9400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -4344,35 +4490,38 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3">
         <v>1900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E66" s="3">
         <v>10400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>10000</v>
       </c>
       <c r="F66" s="3">
         <v>10000</v>
       </c>
       <c r="G66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H66" s="3">
         <v>9300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-51700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-37100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-34700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-44000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-43000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-36300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-34400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-32800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-9200</v>
       </c>
       <c r="F76" s="3">
         <v>-9200</v>
       </c>
       <c r="G76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-14200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-13500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-7000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-5200</v>
       </c>
       <c r="Z76" s="3">
         <v>-5200</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-5200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,116 +5624,122 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-400</v>
@@ -5553,43 +5748,46 @@
         <v>-400</v>
       </c>
       <c r="O81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5628,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -5640,13 +5839,13 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5676,22 +5875,25 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
       <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
-        <v>100</v>
-      </c>
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,37 +6274,40 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
@@ -6102,40 +6319,43 @@
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-800</v>
       </c>
       <c r="T89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U89" s="3">
         <v>-5700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,29 +6382,30 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -6194,14 +6415,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -6209,20 +6430,20 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,47 +6611,50 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6438,16 +6668,16 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>20500</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-400</v>
       </c>
       <c r="X94" s="3">
         <v>-400</v>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14000</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>-800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
     </row>
